--- a/Pokemon_Server/data/pkm_move_meta_categories.xlsx
+++ b/Pokemon_Server/data/pkm_move_meta_categories.xlsx
@@ -40,9 +40,6 @@
     <t>net-good-stats</t>
   </si>
   <si>
-    <t>No damage; lowers target's stats or raises user's stats</t>
-  </si>
-  <si>
     <t>heal</t>
   </si>
   <si>
@@ -58,21 +55,12 @@
     <t>swagger</t>
   </si>
   <si>
-    <t>No damage; inflicts status ailment; raises target's stats</t>
-  </si>
-  <si>
     <t>damage+lower</t>
   </si>
   <si>
-    <t>Inflicts damage; lowers target's stats</t>
-  </si>
-  <si>
     <t>damage+raise</t>
   </si>
   <si>
-    <t>Inflicts damage; raises user's stats</t>
-  </si>
-  <si>
     <t>damage+heal</t>
   </si>
   <si>
@@ -107,6 +95,18 @@
   </si>
   <si>
     <t>Unique effect</t>
+  </si>
+  <si>
+    <t>No damage; lowers target''s stats or raises user''s stats</t>
+  </si>
+  <si>
+    <t>No damage; inflicts status ailment; raises target''s stats</t>
+  </si>
+  <si>
+    <t>Inflicts damage; lowers target''s stats</t>
+  </si>
+  <si>
+    <t>Inflicts damage; raises user''s stats</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +514,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +624,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
